--- a/biology/Zoologie/Historis_odius/Historis_odius.xlsx
+++ b/biology/Zoologie/Historis_odius/Historis_odius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Historis odius est une espèce de lépidoptères de la famille des Nymphalidae, de la sous-famille des Nymphalinae, de la tribu des Coeini et du genre Historis. C'est l'espèce type pour le genre.
 </t>
@@ -511,88 +523,93 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Historis odius a été décrit par l'entomologiste danois Johan Christian Fabricius en 1775 sous le nom de Papilio odius[1].
-Noms vernaculaires
-Il se nomme Orion ou Stinky Leafwing en anglais, Nymphale du Bois Canon en français, Nenfal Bwa kanon ou Nenfal Bwa twompet en créole[2].
-Sous-espèces
-Historis odius odius
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historis odius a été décrit par l'entomologiste danois Johan Christian Fabricius en 1775 sous le nom de Papilio odius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Historis_odius</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_odius</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Orion ou Stinky Leafwing en anglais, Nymphale du Bois Canon en français, Nenfal Bwa kanon ou Nenfal Bwa twompet en créole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Historis_odius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_odius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Historis odius odius
 Synonymie pour cette sous-espèce
-Papilio orion (Fabricius, 1775)[3]
-Aganisthos orion  (Godman &amp; Salvin, 1884)[4]
+Papilio orion (Fabricius, 1775)
+Aganisthos orion  (Godman &amp; Salvin, 1884)
 Historis odius caloucaera (Brévignon, 2003), présent à la Guadeloupe
 Historis odius dious (Lamas, 1995), présent au Surinam.
 Synonymie pour cette sous-espèce
-Papilio danaë (Cramer, 1775)[5]
-Historis odius orion (fabricius, 1775), présent du sud des États-Unis à l'Argentine, à la Guadeloupe et la Martinique[6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Historis_odius</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Historis_odius</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago est un très grand papillon d'une envergure de 90 mm à 110 mm, qui présente un dessus de couleur orange cuivré à très large bordure marron foncé[7].
-Le revers est plus terne marqué de zébrures jaune orangé et marron roux.
-Chenille
-Les chenilles ont un corps marron rouge annelé de jaune orné d'épines jaunes et une tête rouge avec deux cornes noires[7].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Historis_odius</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Historis_odius</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago est très attiré par les déchets organiques[8].
-Plantes hôtes
-La chenille d’Historis odius se nourrit de plantes du genre Cecropia (particulièrement Cecropia peltata et Cecropia schreberianaaux, le Bois Canon Antilles) qui regroupe des arbres dioïques de la famille des Cecropiaceae, ou des Urticaceae selon la classification phylogénétique[9].
-</t>
+Papilio danaë (Cramer, 1775)
+Historis odius orion (fabricius, 1775), présent du sud des États-Unis à l'Argentine, à la Guadeloupe et la Martinique</t>
         </is>
       </c>
     </row>
@@ -617,14 +634,192 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago est un très grand papillon d'une envergure de 90 mm à 110 mm, qui présente un dessus de couleur orange cuivré à très large bordure marron foncé.
+Le revers est plus terne marqué de zébrures jaune orangé et marron roux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Historis_odius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_odius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles ont un corps marron rouge annelé de jaune orné d'épines jaunes et une tête rouge avec deux cornes noires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Historis_odius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_odius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago est très attiré par les déchets organiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Historis_odius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_odius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille d’Historis odius se nourrit de plantes du genre Cecropia (particulièrement Cecropia peltata et Cecropia schreberianaaux, le Bois Canon Antilles) qui regroupe des arbres dioïques de la famille des Cecropiaceae, ou des Urticaceae selon la classification phylogénétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Historis_odius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_odius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historis odius a été signalé au Texas. Il est présent au Mexique, en Amérique centrale, en Amérique du Sud, au Surinam et jusqu'en Argentine, en Équateur, en Bolivie et au Pérou, et dans toutes les Grandes Antilles dont Guadeloupe et Martinique[7].
-Biotope
-Il réside en forêt[7].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historis odius a été signalé au Texas. Il est présent au Mexique, en Amérique centrale, en Amérique du Sud, au Surinam et jusqu'en Argentine, en Équateur, en Bolivie et au Pérou, et dans toutes les Grandes Antilles dont Guadeloupe et Martinique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Historis_odius</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Historis_odius</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt.
 			Historis odius Gros plan
 </t>
         </is>
